--- a/src/test/resources/TestData/PrivateCarOrg.xlsx
+++ b/src/test/resources/TestData/PrivateCarOrg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr hidePivotFieldList="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation\RR\PrivateCar-SIT\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\PrivateCar-UAT\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44BB28F-4451-4D1A-9781-998D819F07E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A28EEC-061A-4A52-B8E9-6C3DDE9F8B22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DashboardRV" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <pivotCache cacheId="2" r:id="rId9"/>
   </pivotCaches>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="232">
   <si>
     <t>Sno</t>
   </si>
@@ -166,9 +166,6 @@
     <t>Issue Policy with Registered Vehicle with Comprehensive Coverage</t>
   </si>
   <si>
-    <t>Issue Policy with Registered Vehicle with Third Party Coverage</t>
-  </si>
-  <si>
     <t>PC</t>
   </si>
   <si>
@@ -670,9 +667,6 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>940630123455</t>
-  </si>
-  <si>
     <t>VGA6536</t>
   </si>
   <si>
@@ -682,12 +676,6 @@
     <t>20-04-2026</t>
   </si>
   <si>
-    <t>WB3408H</t>
-  </si>
-  <si>
-    <t>821022146085</t>
-  </si>
-  <si>
     <t>20-03-2025</t>
   </si>
   <si>
@@ -731,13 +719,26 @@
   </si>
   <si>
     <t>Private Car Transfer of Ownership</t>
+  </si>
+  <si>
+    <t>VCA9041</t>
+  </si>
+  <si>
+    <t>1055110H</t>
+  </si>
+  <si>
+    <t>16-05-2025</t>
+  </si>
+  <si>
+    <t>15-05-2026</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <numFmts count="0"/>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,6 +779,12 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -852,7 +859,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -910,6 +917,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1194,7 +1202,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[PrivateCar.xlsx]DashboardRV!PivotTable1</c:name>
+    <c:name>[PrivateCarOrg.xlsx]DashboardRV!PivotTable1</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -1671,7 +1679,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[PrivateCar.xlsx]DashboardRV!PivotTable2</c:name>
+    <c:name>[PrivateCarOrg.xlsx]DashboardRV!PivotTable2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2114,7 +2122,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[PrivateCar.xlsx]DashboardNV!PivotTable1</c:name>
+    <c:name>[PrivateCarOrg.xlsx]DashboardNV!PivotTable1</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -2597,7 +2605,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[PrivateCar.xlsx]DashboardNV!PivotTable2</c:name>
+    <c:name>[PrivateCarOrg.xlsx]DashboardNV!PivotTable2</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -3054,7 +3062,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[PrivateCar.xlsx]DashboardTO!PivotTable1</c:name>
+    <c:name>[PrivateCarOrg.xlsx]DashboardTO!PivotTable1</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -3531,7 +3539,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[PrivateCar.xlsx]DashboardTO!PivotTable2</c:name>
+    <c:name>[PrivateCarOrg.xlsx]DashboardTO!PivotTable2</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -10979,6 +10987,137 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4835F9D5-316A-469B-AC80-1739299B9E0F}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="AE14:AF16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="57">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="49" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="49"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Value" fld="52" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="5">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea field="49" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="49" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{237DE21D-C108-407B-9CCD-EB11944F6790}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="AE9:AF12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="57">
@@ -11067,26 +11206,26 @@
     <dataField name="Sum of Value" fld="52" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="5">
+    <format dxfId="11">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="9">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -11120,137 +11259,6 @@
           </reference>
           <reference field="5" count="1" selected="0">
             <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4835F9D5-316A-469B-AC80-1739299B9E0F}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="AE14:AF16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="57">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="49" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="49"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Value" fld="52" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="11">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="10">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="9">
-      <pivotArea field="49" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="8">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="49" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="7">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="6">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -11539,14 +11547,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="21" width="13.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="21" width="12.7109375"/>
+    <col min="3" max="16384" style="21" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" s="24" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -11592,10 +11600,10 @@
     </row>
     <row r="3" spans="1:31">
       <c r="AD3" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE3" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -11616,7 +11624,7 @@
     </row>
     <row r="6" spans="1:31">
       <c r="AD6" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE6" s="23">
         <v>12</v>
@@ -11624,15 +11632,15 @@
     </row>
     <row r="8" spans="1:31">
       <c r="AD8" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE8" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:31">
       <c r="AD9" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE9" s="23">
         <v>6</v>
@@ -11640,7 +11648,7 @@
     </row>
     <row r="10" spans="1:31">
       <c r="AD10" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AE10" s="23">
         <v>6</v>
@@ -11648,7 +11656,7 @@
     </row>
     <row r="11" spans="1:31">
       <c r="AD11" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE11" s="23">
         <v>12</v>
@@ -11668,46 +11676,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BH13"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="36" width="24.140625" customWidth="1"/>
-    <col min="37" max="37" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="26" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="62.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.5703125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.42578125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.140625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.5703125"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="20" width="13.140625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.140625"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.0"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.5703125"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="21.0"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="13.85546875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="9.85546875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="20.140625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="20.28515625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="15.85546875"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="7.85546875"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="4.42578125"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.5703125"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="24.140625"/>
+    <col min="27" max="36" customWidth="true" width="24.140625"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="19.5703125"/>
+    <col min="38" max="39" bestFit="true" customWidth="true" width="26.0"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="29.140625"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="28.28515625"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="13.28515625"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="16.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60" s="9" customFormat="1" ht="31.5">
@@ -11790,34 +11798,34 @@
         <v>22</v>
       </c>
       <c r="AA1" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AC1" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AD1" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AE1" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AF1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AG1" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AH1" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AI1" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="AI1" s="13" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="AJ1" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="AK1" s="13" t="s">
         <v>30</v>
@@ -11829,34 +11837,34 @@
         <v>32</v>
       </c>
       <c r="AN1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO1" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="AO1" s="14" t="s">
+      <c r="AP1" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="AP1" s="14" t="s">
+      <c r="AQ1" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="AQ1" s="14" t="s">
+      <c r="AR1" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="AR1" s="14" t="s">
+      <c r="AS1" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="AS1" s="14" t="s">
+      <c r="AT1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="AT1" s="14" t="s">
+      <c r="AU1" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="AU1" s="14" t="s">
+      <c r="AV1" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="AV1" s="14" t="s">
+      <c r="AW1" s="14" t="s">
         <v>113</v>
-      </c>
-      <c r="AW1" s="14" t="s">
-        <v>114</v>
       </c>
       <c r="AX1" s="14" t="s">
         <v>31</v>
@@ -11868,28 +11876,28 @@
         <v>39</v>
       </c>
       <c r="BA1" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="BB1" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BC1" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BD1" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="BE1" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BF1" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="BG1" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="BG1" s="7" t="s">
+      <c r="BH1" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="BH1" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:60" ht="72">
@@ -11897,16 +11905,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>215</v>
+      <c r="D2" s="25" t="s">
+        <v>228</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>2</v>
@@ -11915,13 +11923,13 @@
         <v>1</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>216</v>
+        <v>231</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>37</v>
@@ -11930,79 +11938,79 @@
         <v>3</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Z2" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AA2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="AF2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AH2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AL2" s="3" t="s">
         <v>34</v>
@@ -12038,16 +12046,16 @@
         <v>81100</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF2" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG2" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BG2" s="19" t="s">
+      <c r="BH2" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BH2" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:60" ht="72">
@@ -12055,31 +12063,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>215</v>
+        <v>42</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>228</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>177</v>
+        <v>56</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>37</v>
@@ -12088,79 +12096,79 @@
         <v>3</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="U3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AA3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AJ3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AL3" s="3" t="s">
         <v>34</v>
@@ -12196,16 +12204,16 @@
         <v>81100</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF3" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG3" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BG3" s="19" t="s">
+      <c r="BH3" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BH3" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:60" ht="72">
@@ -12213,37 +12221,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>215</v>
+      <c r="D4" s="25" t="s">
+        <v>228</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>216</v>
+        <v>212</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>37</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -12260,37 +12268,37 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="AF4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AH4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AJ4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AL4" s="3" t="s">
         <v>34</v>
@@ -12326,16 +12334,16 @@
         <v>81100</v>
       </c>
       <c r="BE4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF4" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG4" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BG4" s="19" t="s">
+      <c r="BH4" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BH4" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:60" ht="72">
@@ -12343,37 +12351,37 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>215</v>
+        <v>42</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>228</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>177</v>
+        <v>56</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="G5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>216</v>
+      <c r="J5" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>37</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -12393,34 +12401,34 @@
         <v>26</v>
       </c>
       <c r="AB5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="AF5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AH5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AI5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AK5" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AL5" s="3" t="s">
         <v>34</v>
@@ -12456,16 +12464,16 @@
         <v>81100</v>
       </c>
       <c r="BE5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF5" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG5" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BG5" s="19" t="s">
+      <c r="BH5" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BH5" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:60" ht="72">
@@ -12473,16 +12481,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>215</v>
+      <c r="D6" s="25" t="s">
+        <v>228</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>2</v>
@@ -12492,8 +12500,8 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="18" t="s">
-        <v>216</v>
+      <c r="J6" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>37</v>
@@ -12516,37 +12524,37 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AB6" s="3" t="s">
+      <c r="AC6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AC6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD6" s="3" t="s">
+      <c r="AE6" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="AF6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AI6" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AJ6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL6" s="3" t="s">
         <v>34</v>
@@ -12582,16 +12590,16 @@
         <v>81100</v>
       </c>
       <c r="BE6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF6" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG6" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BG6" s="19" t="s">
+      <c r="BH6" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BH6" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:60" ht="72">
@@ -12599,31 +12607,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>215</v>
+        <v>42</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>228</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>177</v>
+        <v>92</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>216</v>
+      <c r="J7" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>37</v>
@@ -12649,34 +12657,34 @@
         <v>26</v>
       </c>
       <c r="AB7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD7" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AC7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD7" s="3" t="s">
+      <c r="AE7" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="AE7" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="AF7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AI7" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AJ7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AK7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AL7" s="3" t="s">
         <v>34</v>
@@ -12712,16 +12720,16 @@
         <v>81100</v>
       </c>
       <c r="BE7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF7" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG7" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BG7" s="19" t="s">
+      <c r="BH7" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BH7" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:60" ht="72">
@@ -12729,33 +12737,33 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>215</v>
+      <c r="D8" s="25" t="s">
+        <v>228</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="18" t="s">
-        <v>216</v>
+      <c r="J8" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>37</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -12772,37 +12780,37 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AC8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AD8" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AD8" s="3" t="s">
+      <c r="AE8" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="AF8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AI8" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AK8" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AL8" s="3" t="s">
         <v>34</v>
@@ -12838,16 +12846,16 @@
         <v>81100</v>
       </c>
       <c r="BE8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF8" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG8" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BG8" s="19" t="s">
+      <c r="BH8" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BH8" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:60" ht="72">
@@ -12855,33 +12863,33 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>215</v>
+        <v>42</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>228</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>177</v>
+        <v>92</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="G9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="18" t="s">
-        <v>216</v>
+      <c r="J9" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>37</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -12901,34 +12909,34 @@
         <v>26</v>
       </c>
       <c r="AB9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AC9" s="3" t="s">
+      <c r="AD9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AD9" s="3" t="s">
+      <c r="AE9" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="AE9" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="AF9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AG9" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AH9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AI9" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AK9" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AL9" s="3" t="s">
         <v>34</v>
@@ -12964,16 +12972,16 @@
         <v>81100</v>
       </c>
       <c r="BE9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF9" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG9" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BG9" s="19" t="s">
+      <c r="BH9" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BH9" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:60" ht="72">
@@ -12981,16 +12989,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>215</v>
+      <c r="D10" s="25" t="s">
+        <v>228</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>2</v>
@@ -13000,8 +13008,8 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="18" t="s">
-        <v>216</v>
+      <c r="J10" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>37</v>
@@ -13024,37 +13032,37 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB10" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="AB10" s="3" t="s">
+      <c r="AC10" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="AC10" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="AD10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AE10" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AG10" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AH10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AI10" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AJ10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AK10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL10" s="3" t="s">
         <v>34</v>
@@ -13090,16 +13098,16 @@
         <v>81100</v>
       </c>
       <c r="BE10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF10" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG10" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BG10" s="19" t="s">
+      <c r="BH10" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BH10" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:60" ht="72">
@@ -13107,27 +13115,27 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>215</v>
+        <v>42</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>228</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>177</v>
+        <v>56</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="18" t="s">
-        <v>216</v>
+      <c r="J11" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>37</v>
@@ -13153,34 +13161,34 @@
         <v>26</v>
       </c>
       <c r="AB11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC11" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="AC11" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="AD11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AH11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AI11" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AJ11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AK11" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL11" s="3" t="s">
         <v>34</v>
@@ -13216,16 +13224,16 @@
         <v>81100</v>
       </c>
       <c r="BE11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF11" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG11" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BG11" s="19" t="s">
+      <c r="BH11" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BH11" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:60" ht="72">
@@ -13233,33 +13241,33 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>215</v>
+      <c r="D12" s="25" t="s">
+        <v>228</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="18" t="s">
-        <v>216</v>
+      <c r="J12" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>37</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -13276,37 +13284,37 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB12" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="AB12" s="3" t="s">
+      <c r="AC12" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="AC12" s="3" t="s">
+      <c r="AD12" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="AD12" s="3" t="s">
+      <c r="AE12" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="AE12" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="AF12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AH12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AK12" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AL12" s="3" t="s">
         <v>34</v>
@@ -13342,16 +13350,16 @@
         <v>81100</v>
       </c>
       <c r="BE12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF12" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG12" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BG12" s="19" t="s">
+      <c r="BH12" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BH12" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:60" ht="72">
@@ -13359,33 +13367,33 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>215</v>
+        <v>42</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>228</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>177</v>
+        <v>92</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="G13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="18" t="s">
-        <v>216</v>
+      <c r="J13" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>37</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -13405,34 +13413,34 @@
         <v>26</v>
       </c>
       <c r="AB13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AC13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD13" s="3" t="s">
+      <c r="AE13" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="AE13" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="AF13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AI13" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AJ13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AL13" s="3" t="s">
         <v>34</v>
@@ -13468,16 +13476,16 @@
         <v>81100</v>
       </c>
       <c r="BE13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF13" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG13" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BG13" s="19" t="s">
+      <c r="BH13" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BH13" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -13496,14 +13504,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="21" width="13.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="21" width="12.7109375"/>
+    <col min="3" max="16384" style="21" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
       <c r="A1" s="24" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -13549,10 +13557,10 @@
     </row>
     <row r="9" spans="1:33">
       <c r="AF9" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG9" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -13573,7 +13581,7 @@
     </row>
     <row r="12" spans="1:33">
       <c r="AF12" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AG12" s="23">
         <v>12</v>
@@ -13581,15 +13589,15 @@
     </row>
     <row r="14" spans="1:33">
       <c r="AF14" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG14" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:33">
       <c r="AF15" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG15" s="23">
         <v>12</v>
@@ -13597,7 +13605,7 @@
     </row>
     <row r="16" spans="1:33">
       <c r="AF16" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AG16" s="23">
         <v>12</v>
@@ -13622,11 +13630,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="31.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="24.7109375" style="20"/>
-    <col min="51" max="51" width="27" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="9.85546875"/>
+    <col min="3" max="3" customWidth="true" width="35.85546875"/>
+    <col min="11" max="11" customWidth="true" width="18.5703125"/>
+    <col min="13" max="13" style="20" width="24.7109375"/>
+    <col min="51" max="51" customWidth="true" width="27.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71" ht="31.5" customHeight="1">
@@ -13640,46 +13648,46 @@
         <v>7</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="11" t="s">
         <v>144</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>145</v>
       </c>
       <c r="R1" s="7" t="s">
         <v>6</v>
@@ -13745,34 +13753,34 @@
         <v>22</v>
       </c>
       <c r="AM1" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="AN1" s="15" t="s">
+      <c r="AO1" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="AO1" s="15" t="s">
+      <c r="AP1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="AP1" s="15" t="s">
+      <c r="AQ1" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="AQ1" s="15" t="s">
+      <c r="AR1" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="15" t="s">
+      <c r="AS1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="AS1" s="15" t="s">
+      <c r="AT1" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="AT1" s="15" t="s">
+      <c r="AU1" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="AU1" s="15" t="s">
+      <c r="AV1" s="15" t="s">
         <v>103</v>
-      </c>
-      <c r="AV1" s="15" t="s">
-        <v>104</v>
       </c>
       <c r="AW1" s="15" t="s">
         <v>30</v>
@@ -13784,34 +13792,34 @@
         <v>32</v>
       </c>
       <c r="AZ1" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA1" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="BA1" s="16" t="s">
+      <c r="BB1" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="BB1" s="16" t="s">
+      <c r="BC1" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="BC1" s="16" t="s">
+      <c r="BD1" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="BD1" s="16" t="s">
+      <c r="BE1" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="BE1" s="16" t="s">
+      <c r="BF1" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="BF1" s="16" t="s">
+      <c r="BG1" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="BG1" s="16" t="s">
+      <c r="BH1" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="BH1" s="16" t="s">
+      <c r="BI1" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="BI1" s="16" t="s">
-        <v>114</v>
       </c>
       <c r="BJ1" s="16" t="s">
         <v>31</v>
@@ -13820,28 +13828,28 @@
         <v>28</v>
       </c>
       <c r="BL1" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BM1" s="7" t="s">
         <v>39</v>
       </c>
       <c r="BN1" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="BO1" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BP1" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BQ1" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="BR1" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="BR1" s="7" t="s">
+      <c r="BS1" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="BS1" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:71" ht="31.5" customHeight="1">
@@ -13849,13 +13857,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
@@ -13864,25 +13872,25 @@
         <v>81100</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K2" s="2">
         <v>125</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="N2" s="2">
         <v>2022</v>
@@ -13891,10 +13899,10 @@
         <v>40</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>2</v>
@@ -13905,13 +13913,13 @@
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
       <c r="V2" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>37</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
@@ -13928,37 +13936,37 @@
       <c r="AK2" s="3"/>
       <c r="AL2" s="3"/>
       <c r="AM2" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AN2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO2" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="AP2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AR2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AT2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AX2" s="3"/>
       <c r="AY2" s="3" t="s">
@@ -13979,7 +13987,7 @@
         <v>29</v>
       </c>
       <c r="BL2" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BM2" s="3">
         <v>0</v>
@@ -13992,13 +14000,13 @@
         <v>1</v>
       </c>
       <c r="BQ2" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR2" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BR2" s="19" t="s">
+      <c r="BS2" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BS2" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:71" ht="31.5" customHeight="1">
@@ -14006,40 +14014,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="12">
         <v>81100</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K3" s="2">
         <v>190</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N3" s="2">
         <v>2022</v>
@@ -14048,25 +14056,25 @@
         <v>40</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W3" s="5" t="s">
         <v>37</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
@@ -14086,34 +14094,34 @@
         <v>26</v>
       </c>
       <c r="AN3" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO3" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="AO3" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="AP3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AQ3" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AR3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AS3" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AT3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AU3" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AV3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AW3" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX3" s="3"/>
       <c r="AY3" s="3" t="s">
@@ -14134,7 +14142,7 @@
         <v>29</v>
       </c>
       <c r="BL3" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BM3" s="3" t="s">
         <v>40</v>
@@ -14147,13 +14155,13 @@
         <v>1</v>
       </c>
       <c r="BQ3" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR3" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BR3" s="19" t="s">
+      <c r="BS3" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BS3" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:71" ht="31.5" customHeight="1">
@@ -14161,13 +14169,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>1</v>
@@ -14176,25 +14184,25 @@
         <v>81100</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K4" s="2">
         <v>160</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>174</v>
       </c>
       <c r="N4" s="2">
         <v>2022</v>
@@ -14203,10 +14211,10 @@
         <v>40</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>2</v>
@@ -14217,13 +14225,13 @@
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
       <c r="V4" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>37</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
@@ -14240,37 +14248,37 @@
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
       <c r="AM4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AN4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO4" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="AO4" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="AP4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AQ4" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AR4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AS4" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AT4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AU4" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AW4" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AX4" s="3"/>
       <c r="AY4" s="3" t="s">
@@ -14291,7 +14299,7 @@
         <v>29</v>
       </c>
       <c r="BL4" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BM4" s="3">
         <v>0</v>
@@ -14304,13 +14312,13 @@
         <v>1</v>
       </c>
       <c r="BQ4" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR4" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BR4" s="19" t="s">
+      <c r="BS4" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BS4" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:71" ht="31.5" customHeight="1">
@@ -14318,40 +14326,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="12">
         <v>81100</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K5" s="2">
         <v>190</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N5" s="2">
         <v>2022</v>
@@ -14360,25 +14368,25 @@
         <v>40</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R5" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W5" s="5" t="s">
         <v>37</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
@@ -14398,34 +14406,34 @@
         <v>26</v>
       </c>
       <c r="AN5" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO5" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="AO5" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="AP5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AQ5" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AR5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AS5" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AT5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AU5" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AV5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AW5" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX5" s="3"/>
       <c r="AY5" s="3" t="s">
@@ -14446,7 +14454,7 @@
         <v>29</v>
       </c>
       <c r="BL5" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BM5" s="3" t="s">
         <v>40</v>
@@ -14459,13 +14467,13 @@
         <v>1</v>
       </c>
       <c r="BQ5" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR5" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BR5" s="19" t="s">
+      <c r="BS5" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BS5" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:71" ht="31.5" customHeight="1">
@@ -14473,13 +14481,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>1</v>
@@ -14488,25 +14496,25 @@
         <v>81100</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="J6" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K6" s="2">
         <v>160</v>
       </c>
       <c r="L6" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="N6" s="2">
         <v>2022</v>
@@ -14515,10 +14523,10 @@
         <v>40</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>2</v>
@@ -14529,13 +14537,13 @@
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W6" s="5" t="s">
         <v>37</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
@@ -14552,34 +14560,34 @@
       <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
       <c r="AM6" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AN6" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AO6" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP6" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="AP6" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="AQ6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AR6" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AS6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AT6" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AU6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AV6" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AW6" s="3" t="s">
         <v>27</v>
@@ -14603,7 +14611,7 @@
         <v>29</v>
       </c>
       <c r="BL6" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BM6" s="3" t="s">
         <v>40</v>
@@ -14616,13 +14624,13 @@
         <v>1</v>
       </c>
       <c r="BQ6" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR6" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BR6" s="19" t="s">
+      <c r="BS6" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BS6" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:71" ht="31.5" customHeight="1">
@@ -14630,40 +14638,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="12">
         <v>81100</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="J7" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K7" s="2">
         <v>190</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N7" s="2">
         <v>2022</v>
@@ -14672,25 +14680,25 @@
         <v>40</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R7" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W7" s="5" t="s">
         <v>37</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
@@ -14707,34 +14715,34 @@
       <c r="AK7" s="3"/>
       <c r="AL7" s="3"/>
       <c r="AM7" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AN7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AO7" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP7" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="AP7" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="AQ7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AR7" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AS7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AT7" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AU7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AV7" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW7" s="3" t="s">
         <v>27</v>
@@ -14758,7 +14766,7 @@
         <v>29</v>
       </c>
       <c r="BL7" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BM7" s="3" t="s">
         <v>40</v>
@@ -14771,13 +14779,13 @@
         <v>1</v>
       </c>
       <c r="BQ7" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR7" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BR7" s="19" t="s">
+      <c r="BS7" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BS7" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:71" ht="31.5" customHeight="1">
@@ -14785,13 +14793,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>1</v>
@@ -14800,25 +14808,25 @@
         <v>81100</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="J8" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K8" s="2">
         <v>160</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M8" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>174</v>
       </c>
       <c r="N8" s="2">
         <v>2022</v>
@@ -14827,10 +14835,10 @@
         <v>40</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>2</v>
@@ -14841,13 +14849,13 @@
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
       <c r="V8" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W8" s="5" t="s">
         <v>37</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
@@ -14864,37 +14872,37 @@
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AN8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO8" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="AO8" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="AP8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AQ8" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AR8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AS8" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AT8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AU8" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AW8" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AX8" s="3"/>
       <c r="AY8" s="3" t="s">
@@ -14915,7 +14923,7 @@
         <v>29</v>
       </c>
       <c r="BL8" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BM8" s="3" t="s">
         <v>40</v>
@@ -14928,13 +14936,13 @@
         <v>1</v>
       </c>
       <c r="BQ8" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR8" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BR8" s="19" t="s">
+      <c r="BS8" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BS8" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:71" ht="31.5" customHeight="1">
@@ -14942,40 +14950,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="12">
         <v>81100</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="J9" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K9" s="2">
         <v>190</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N9" s="2">
         <v>2022</v>
@@ -14984,25 +14992,25 @@
         <v>40</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W9" s="5" t="s">
         <v>37</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
@@ -15022,34 +15030,34 @@
         <v>26</v>
       </c>
       <c r="AN9" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO9" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="AO9" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="AP9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AQ9" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AR9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AS9" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AT9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AU9" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AV9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AW9" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX9" s="3"/>
       <c r="AY9" s="3" t="s">
@@ -15070,7 +15078,7 @@
         <v>29</v>
       </c>
       <c r="BL9" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BM9" s="3" t="s">
         <v>40</v>
@@ -15083,13 +15091,13 @@
         <v>1</v>
       </c>
       <c r="BQ9" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR9" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BR9" s="19" t="s">
+      <c r="BS9" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BS9" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:71" ht="31.5" customHeight="1">
@@ -15097,13 +15105,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>1</v>
@@ -15112,25 +15120,25 @@
         <v>81100</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="J10" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K10" s="2">
         <v>160</v>
       </c>
       <c r="L10" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M10" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="N10" s="2">
         <v>2022</v>
@@ -15139,10 +15147,10 @@
         <v>40</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>2</v>
@@ -15153,13 +15161,13 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W10" s="5" t="s">
         <v>37</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
@@ -15176,34 +15184,34 @@
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
       <c r="AM10" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AN10" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AO10" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP10" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="AP10" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="AQ10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AR10" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AS10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AT10" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AU10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AV10" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AW10" s="3" t="s">
         <v>27</v>
@@ -15227,7 +15235,7 @@
         <v>29</v>
       </c>
       <c r="BL10" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BM10" s="3" t="s">
         <v>40</v>
@@ -15240,13 +15248,13 @@
         <v>1</v>
       </c>
       <c r="BQ10" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR10" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BR10" s="19" t="s">
+      <c r="BS10" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BS10" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:71" ht="31.5" customHeight="1">
@@ -15254,40 +15262,40 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="12">
         <v>81100</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="J11" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K11" s="2">
         <v>190</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N11" s="2">
         <v>2022</v>
@@ -15296,25 +15304,25 @@
         <v>40</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R11" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W11" s="5" t="s">
         <v>37</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
@@ -15331,34 +15339,34 @@
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
       <c r="AM11" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AO11" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP11" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="AP11" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="AQ11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AR11" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AS11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AT11" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AU11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AV11" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW11" s="3" t="s">
         <v>27</v>
@@ -15382,7 +15390,7 @@
         <v>29</v>
       </c>
       <c r="BL11" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BM11" s="3" t="s">
         <v>40</v>
@@ -15395,13 +15403,13 @@
         <v>1</v>
       </c>
       <c r="BQ11" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR11" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BR11" s="19" t="s">
+      <c r="BS11" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BS11" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:71" ht="31.5" customHeight="1">
@@ -15409,13 +15417,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>1</v>
@@ -15424,25 +15432,25 @@
         <v>81100</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="J12" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K12" s="2">
         <v>160</v>
       </c>
       <c r="L12" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M12" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>174</v>
       </c>
       <c r="N12" s="2">
         <v>2022</v>
@@ -15451,10 +15459,10 @@
         <v>40</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>2</v>
@@ -15465,13 +15473,13 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W12" s="5" t="s">
         <v>37</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
@@ -15488,34 +15496,34 @@
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
       <c r="AM12" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AN12" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AO12" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP12" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="AP12" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="AQ12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AR12" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AS12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AT12" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AU12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AV12" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AW12" s="3" t="s">
         <v>27</v>
@@ -15539,7 +15547,7 @@
         <v>29</v>
       </c>
       <c r="BL12" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BM12" s="3" t="s">
         <v>40</v>
@@ -15552,13 +15560,13 @@
         <v>1</v>
       </c>
       <c r="BQ12" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR12" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BR12" s="19" t="s">
+      <c r="BS12" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BS12" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:71" ht="31.5" customHeight="1">
@@ -15566,40 +15574,40 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" s="12">
         <v>81100</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="J13" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K13" s="2">
         <v>190</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N13" s="2">
         <v>2022</v>
@@ -15608,25 +15616,25 @@
         <v>40</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R13" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W13" s="5" t="s">
         <v>37</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
@@ -15643,34 +15651,34 @@
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
       <c r="AM13" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AN13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AO13" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP13" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="AP13" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="AQ13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AR13" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AS13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AT13" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AU13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AV13" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW13" s="3" t="s">
         <v>27</v>
@@ -15694,7 +15702,7 @@
         <v>29</v>
       </c>
       <c r="BL13" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BM13" s="3" t="s">
         <v>40</v>
@@ -15707,13 +15715,13 @@
         <v>1</v>
       </c>
       <c r="BQ13" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR13" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BR13" s="19" t="s">
+      <c r="BS13" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BS13" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -15725,20 +15733,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F80A740-9D51-4567-A74C-1D9E3238AE6D}">
   <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="21" width="13.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="21" width="12.7109375"/>
+    <col min="3" max="16384" style="21" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
       <c r="A1" s="24" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -15784,10 +15792,10 @@
     </row>
     <row r="9" spans="1:32">
       <c r="AE9" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF9" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -15808,7 +15816,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="AE12" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AF12" s="23">
         <v>12</v>
@@ -15816,15 +15824,15 @@
     </row>
     <row r="14" spans="1:32">
       <c r="AE14" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF14" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:32">
       <c r="AE15" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AF15" s="23">
         <v>12</v>
@@ -15832,7 +15840,7 @@
     </row>
     <row r="16" spans="1:32">
       <c r="AE16" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AF16" s="23">
         <v>12</v>
@@ -15852,27 +15860,27 @@
   <dimension ref="A1:BH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" customWidth="1"/>
-    <col min="58" max="58" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.7109375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0"/>
+    <col min="3" max="3" customWidth="true" width="22.0"/>
+    <col min="4" max="4" customWidth="true" width="13.0"/>
+    <col min="5" max="5" customWidth="true" width="14.0"/>
+    <col min="6" max="6" customWidth="true" width="15.7109375"/>
+    <col min="7" max="7" customWidth="true" width="14.7109375"/>
+    <col min="8" max="8" customWidth="true" width="15.0"/>
+    <col min="9" max="9" customWidth="true" width="14.42578125"/>
+    <col min="10" max="10" customWidth="true" width="14.0"/>
+    <col min="11" max="11" customWidth="true" width="13.5703125"/>
+    <col min="12" max="12" customWidth="true" width="13.0"/>
+    <col min="13" max="13" customWidth="true" width="17.5703125"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="13.28515625"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="16.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="31.5">
@@ -15955,34 +15963,34 @@
         <v>22</v>
       </c>
       <c r="AA1" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AC1" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AD1" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AE1" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AF1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AG1" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AH1" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AI1" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="AI1" s="13" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="AJ1" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="AK1" s="13" t="s">
         <v>30</v>
@@ -15994,34 +16002,34 @@
         <v>32</v>
       </c>
       <c r="AN1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO1" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="AO1" s="14" t="s">
+      <c r="AP1" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="AP1" s="14" t="s">
+      <c r="AQ1" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="AQ1" s="14" t="s">
+      <c r="AR1" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="AR1" s="14" t="s">
+      <c r="AS1" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="AS1" s="14" t="s">
+      <c r="AT1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="AT1" s="14" t="s">
+      <c r="AU1" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="AU1" s="14" t="s">
+      <c r="AV1" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="AV1" s="14" t="s">
+      <c r="AW1" s="14" t="s">
         <v>113</v>
-      </c>
-      <c r="AW1" s="14" t="s">
-        <v>114</v>
       </c>
       <c r="AX1" s="14" t="s">
         <v>31</v>
@@ -16033,28 +16041,28 @@
         <v>39</v>
       </c>
       <c r="BA1" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="BB1" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BC1" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BD1" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="BE1" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BF1" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="BG1" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="BG1" s="7" t="s">
+      <c r="BH1" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="BH1" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:60" ht="72">
@@ -16062,16 +16070,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>2</v>
@@ -16081,8 +16089,8 @@
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
-      <c r="J2" s="4" t="s">
-        <v>211</v>
+      <c r="J2" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>37</v>
@@ -16105,37 +16113,37 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AH2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AL2" s="3" t="s">
         <v>34</v>
@@ -16171,16 +16179,16 @@
         <v>81100</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF2" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG2" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BG2" s="19" t="s">
+      <c r="BH2" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BH2" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:60" ht="72">
@@ -16188,29 +16196,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>211</v>
+      <c r="J3" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>37</v>
@@ -16236,34 +16246,34 @@
         <v>26</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AD3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AJ3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AL3" s="3" t="s">
         <v>34</v>
@@ -16299,16 +16309,16 @@
         <v>81100</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF3" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG3" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BG3" s="19" t="s">
+      <c r="BH3" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BH3" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:60" ht="72">
@@ -16316,33 +16326,33 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="4" t="s">
-        <v>211</v>
+      <c r="J4" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>37</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -16359,37 +16369,37 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="AF4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AH4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AJ4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AL4" s="3" t="s">
         <v>34</v>
@@ -16425,16 +16435,16 @@
         <v>81100</v>
       </c>
       <c r="BE4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF4" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG4" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BG4" s="19" t="s">
+      <c r="BH4" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BH4" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:60" ht="72">
@@ -16442,35 +16452,37 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>211</v>
+      <c r="J5" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>37</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -16490,34 +16502,34 @@
         <v>26</v>
       </c>
       <c r="AB5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="AF5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AH5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AI5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AK5" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AL5" s="3" t="s">
         <v>34</v>
@@ -16553,16 +16565,16 @@
         <v>81100</v>
       </c>
       <c r="BE5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF5" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG5" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BG5" s="19" t="s">
+      <c r="BH5" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BH5" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:60" ht="72">
@@ -16570,27 +16582,27 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="4" t="s">
-        <v>211</v>
+      <c r="J6" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>37</v>
@@ -16613,37 +16625,37 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AB6" s="3" t="s">
+      <c r="AC6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AC6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD6" s="3" t="s">
+      <c r="AE6" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="AF6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AI6" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AJ6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL6" s="3" t="s">
         <v>34</v>
@@ -16679,16 +16691,16 @@
         <v>81100</v>
       </c>
       <c r="BE6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF6" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG6" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BG6" s="19" t="s">
+      <c r="BH6" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BH6" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:60" ht="72">
@@ -16696,25 +16708,27 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="4" t="s">
-        <v>211</v>
+      <c r="J7" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>37</v>
@@ -16740,34 +16754,34 @@
         <v>26</v>
       </c>
       <c r="AB7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD7" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AC7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD7" s="3" t="s">
+      <c r="AE7" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="AE7" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="AF7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AI7" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AJ7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AK7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AL7" s="3" t="s">
         <v>34</v>
@@ -16803,16 +16817,16 @@
         <v>81100</v>
       </c>
       <c r="BE7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF7" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG7" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BG7" s="19" t="s">
+      <c r="BH7" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BH7" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:60" ht="72">
@@ -16820,33 +16834,33 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="4" t="s">
-        <v>211</v>
+      <c r="J8" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>37</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -16863,37 +16877,37 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AC8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AD8" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AD8" s="3" t="s">
+      <c r="AE8" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="AF8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AI8" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AK8" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AL8" s="3" t="s">
         <v>34</v>
@@ -16929,16 +16943,16 @@
         <v>81100</v>
       </c>
       <c r="BE8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF8" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG8" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BG8" s="19" t="s">
+      <c r="BH8" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BH8" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:60" ht="72">
@@ -16946,31 +16960,33 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="G9" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="4" t="s">
-        <v>211</v>
+      <c r="J9" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>37</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -16990,34 +17006,34 @@
         <v>26</v>
       </c>
       <c r="AB9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AC9" s="3" t="s">
+      <c r="AD9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AD9" s="3" t="s">
+      <c r="AE9" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="AE9" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="AF9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AG9" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AH9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AI9" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AK9" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AL9" s="3" t="s">
         <v>34</v>
@@ -17053,16 +17069,16 @@
         <v>81100</v>
       </c>
       <c r="BE9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF9" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG9" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BG9" s="19" t="s">
+      <c r="BH9" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BH9" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:60" ht="72">
@@ -17070,27 +17086,27 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="4" t="s">
-        <v>211</v>
+      <c r="J10" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>37</v>
@@ -17113,37 +17129,37 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB10" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="AB10" s="3" t="s">
+      <c r="AC10" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="AC10" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="AD10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AE10" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AG10" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AH10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AI10" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AJ10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AK10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL10" s="3" t="s">
         <v>34</v>
@@ -17179,16 +17195,16 @@
         <v>81100</v>
       </c>
       <c r="BE10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF10" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG10" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BG10" s="19" t="s">
+      <c r="BH10" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BH10" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:60" ht="72">
@@ -17196,25 +17212,27 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="G11" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="4" t="s">
-        <v>211</v>
+      <c r="J11" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>37</v>
@@ -17240,34 +17258,34 @@
         <v>26</v>
       </c>
       <c r="AB11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC11" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="AC11" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="AD11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AH11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AI11" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AJ11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AK11" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL11" s="3" t="s">
         <v>34</v>
@@ -17303,16 +17321,16 @@
         <v>81100</v>
       </c>
       <c r="BE11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF11" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG11" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BG11" s="19" t="s">
+      <c r="BH11" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BH11" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:60" ht="72">
@@ -17320,33 +17338,33 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G12" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="4" t="s">
-        <v>211</v>
+      <c r="J12" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>37</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -17363,37 +17381,37 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB12" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="AB12" s="3" t="s">
+      <c r="AC12" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="AC12" s="3" t="s">
+      <c r="AD12" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="AD12" s="3" t="s">
+      <c r="AE12" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="AE12" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="AF12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AH12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AK12" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AL12" s="3" t="s">
         <v>34</v>
@@ -17429,16 +17447,16 @@
         <v>81100</v>
       </c>
       <c r="BE12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF12" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG12" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BG12" s="19" t="s">
+      <c r="BH12" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BH12" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:60" ht="72">
@@ -17446,31 +17464,33 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="G13" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="4" t="s">
-        <v>211</v>
+      <c r="J13" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>37</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -17490,34 +17510,34 @@
         <v>26</v>
       </c>
       <c r="AB13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AC13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD13" s="3" t="s">
+      <c r="AE13" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="AE13" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="AF13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AI13" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AJ13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AL13" s="3" t="s">
         <v>34</v>
@@ -17553,16 +17573,16 @@
         <v>81100</v>
       </c>
       <c r="BE13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF13" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG13" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="BG13" s="19" t="s">
+      <c r="BH13" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="BH13" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
